--- a/传感器/连续物位测量/磁翻板液位计/迈安德物料定义-01属性表-外购设备-磁翻板液位计.xlsx
+++ b/传感器/连续物位测量/磁翻板液位计/迈安德物料定义-01属性表-外购设备-磁翻板液位计.xlsx
@@ -28,12 +28,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -48,8 +58,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -365,13 +377,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="9"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="30"/>
+    <col customWidth="1" max="6" min="6" width="9"/>
+    <col customWidth="1" max="7" min="7" width="80"/>
+    <col customWidth="1" max="8" min="8" width="50"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -404,12 +426,12 @@
           <t>属性类型</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>翻译脚本</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>创建属性脚本</t>
         </is>
@@ -445,11 +467,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E2," = ",B2,)</f>
         <v/>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>CONCATENATE("#"&amp;B2&amp;"
 add attribute "&amp;E2&amp;"
   type "&amp;F2&amp;"
@@ -493,11 +515,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E3," = ",B3,)</f>
         <v/>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>CONCATENATE("#"&amp;B3&amp;"
 add attribute "&amp;E3&amp;"
   type "&amp;F3&amp;"
@@ -541,11 +563,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E4," = ",B4,)</f>
         <v/>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>CONCATENATE("#"&amp;B4&amp;"
 add attribute "&amp;E4&amp;"
   type "&amp;F4&amp;"
@@ -589,11 +611,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E5," = ",B5,)</f>
         <v/>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>CONCATENATE("#"&amp;B5&amp;"
 add attribute "&amp;E5&amp;"
   type "&amp;F5&amp;"
@@ -637,11 +659,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E6," = ",B6,)</f>
         <v/>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>CONCATENATE("#"&amp;B6&amp;"
 add attribute "&amp;E6&amp;"
   type "&amp;F6&amp;"
@@ -685,11 +707,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E7," = ",B7,)</f>
         <v/>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>CONCATENATE("#"&amp;B7&amp;"
 add attribute "&amp;E7&amp;"
   type "&amp;F7&amp;"
@@ -733,11 +755,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E8," = ",B8,)</f>
         <v/>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>CONCATENATE("#"&amp;B8&amp;"
 add attribute "&amp;E8&amp;"
   type "&amp;F8&amp;"
@@ -781,11 +803,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E9," = ",B9,)</f>
         <v/>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f>CONCATENATE("#"&amp;B9&amp;"
 add attribute "&amp;E9&amp;"
   type "&amp;F9&amp;"
@@ -829,11 +851,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E10," = ",B10,)</f>
         <v/>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>CONCATENATE("#"&amp;B10&amp;"
 add attribute "&amp;E10&amp;"
   type "&amp;F10&amp;"
@@ -877,11 +899,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E11," = ",B11,)</f>
         <v/>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>CONCATENATE("#"&amp;B11&amp;"
 add attribute "&amp;E11&amp;"
   type "&amp;F11&amp;"
@@ -925,11 +947,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E12," = ",B12,)</f>
         <v/>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>CONCATENATE("#"&amp;B12&amp;"
 add attribute "&amp;E12&amp;"
   type "&amp;F12&amp;"
@@ -973,11 +995,11 @@
           <t>string</t>
         </is>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f>CONCATENATE("emxFramework.Attribute.",E13," = ",B13,)</f>
         <v/>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>CONCATENATE("#"&amp;B13&amp;"
 add attribute "&amp;E13&amp;"
   type "&amp;F13&amp;"
@@ -990,6 +1012,10 @@
 mod prog eServiceSchemaVariableMapping.tcl add property attribute_"&amp;E13&amp;" to att "&amp;E13&amp;";")</f>
         <v/>
       </c>
+    </row>
+    <row r="14">
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1002,13 +1028,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="2" min="2" width="6"/>
+    <col customWidth="1" max="3" min="3" width="28"/>
+    <col customWidth="1" max="4" min="4" width="37"/>
+    <col customWidth="1" max="5" min="5" width="9"/>
+    <col customWidth="1" max="6" min="6" width="40"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="100"/>
+    <col customWidth="1" max="9" min="9" width="150"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1046,12 +1083,12 @@
           <t>值(不能有中文)</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Range值脚本</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Range值翻译</t>
         </is>
@@ -1092,11 +1129,11 @@
           <t>1139</t>
         </is>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f>CONCATENATE(A2," ",D2," ",E2," ","="," ","'",G2,"'",";")</f>
         <v/>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>CONCATENATE("emxFramework.Range.",D2,,".",G2," ="," ",F2)</f>
         <v/>
       </c>
@@ -1128,11 +1165,11 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3">
+      <c r="H3" s="1">
         <f>CONCATENATE(A3," ",D3," ",E3," ","="," ","'",G3,"'",";")</f>
         <v/>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>CONCATENATE("emxFramework.Range.",D3,,".",G3," ="," ",F3)</f>
         <v/>
       </c>
@@ -1172,11 +1209,11 @@
           <t>productline1</t>
         </is>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f>CONCATENATE(A4," ",D4," ",E4," ","="," ","'",G4,"'",";")</f>
         <v/>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>CONCATENATE("emxFramework.Range.",D4,,".",G4," ="," ",F4)</f>
         <v/>
       </c>
@@ -1216,11 +1253,11 @@
           <t>productline2</t>
         </is>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f>CONCATENATE(A5," ",D5," ",E5," ","="," ","'",G5,"'",";")</f>
         <v/>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>CONCATENATE("emxFramework.Range.",D5,,".",G5," ="," ",F5)</f>
         <v/>
       </c>
@@ -1252,11 +1289,11 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6">
+      <c r="H6" s="1">
         <f>CONCATENATE(A6," ",D6," ",E6," ","="," ","'",G6,"'",";")</f>
         <v/>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>CONCATENATE("emxFramework.Range.",D6,,".",G6," ="," ",F6)</f>
         <v/>
       </c>
@@ -1296,11 +1333,11 @@
           <t>processconnection1</t>
         </is>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f>CONCATENATE(A7," ",D7," ",E7," ","="," ","'",G7,"'",";")</f>
         <v/>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>CONCATENATE("emxFramework.Range.",D7,,".",G7," ="," ",F7)</f>
         <v/>
       </c>
@@ -1340,11 +1377,11 @@
           <t>processconnection2</t>
         </is>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <f>CONCATENATE(A8," ",D8," ",E8," ","="," ","'",G8,"'",";")</f>
         <v/>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>CONCATENATE("emxFramework.Range.",D8,,".",G8," ="," ",F8)</f>
         <v/>
       </c>
@@ -1376,11 +1413,11 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9">
+      <c r="H9" s="1">
         <f>CONCATENATE(A9," ",D9," ",E9," ","="," ","'",G9,"'",";")</f>
         <v/>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>CONCATENATE("emxFramework.Range.",D9,,".",G9," ="," ",F9)</f>
         <v/>
       </c>
@@ -1412,11 +1449,11 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10">
+      <c r="H10" s="1">
         <f>CONCATENATE(A10," ",D10," ",E10," ","="," ","'",G10,"'",";")</f>
         <v/>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>CONCATENATE("emxFramework.Range.",D10,,".",G10," ="," ",F10)</f>
         <v/>
       </c>
@@ -1448,11 +1485,11 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11">
+      <c r="H11" s="1">
         <f>CONCATENATE(A11," ",D11," ",E11," ","="," ","'",G11,"'",";")</f>
         <v/>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>CONCATENATE("emxFramework.Range.",D11,,".",G11," ="," ",F11)</f>
         <v/>
       </c>
@@ -1484,11 +1521,11 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12">
+      <c r="H12" s="1">
         <f>CONCATENATE(A12," ",D12," ",E12," ","="," ","'",G12,"'",";")</f>
         <v/>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>CONCATENATE("emxFramework.Range.",D12,,".",G12," ="," ",F12)</f>
         <v/>
       </c>
@@ -1520,11 +1557,11 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13">
+      <c r="H13" s="1">
         <f>CONCATENATE(A13," ",D13," ",E13," ","="," ","'",G13,"'",";")</f>
         <v/>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>CONCATENATE("emxFramework.Range.",D13,,".",G13," ="," ",F13)</f>
         <v/>
       </c>
@@ -1556,11 +1593,11 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14">
+      <c r="H14" s="1">
         <f>CONCATENATE(A14," ",D14," ",E14," ","="," ","'",G14,"'",";")</f>
         <v/>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>CONCATENATE("emxFramework.Range.",D14,,".",G14," ="," ",F14)</f>
         <v/>
       </c>
@@ -1600,11 +1637,11 @@
           <t>pressurerange1</t>
         </is>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <f>CONCATENATE(A15," ",D15," ",E15," ","="," ","'",G15,"'",";")</f>
         <v/>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>CONCATENATE("emxFramework.Range.",D15,,".",G15," ="," ",F15)</f>
         <v/>
       </c>
@@ -1636,11 +1673,11 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16">
+      <c r="H16" s="1">
         <f>CONCATENATE(A16," ",D16," ",E16," ","="," ","'",G16,"'",";")</f>
         <v/>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>CONCATENATE("emxFramework.Range.",D16,,".",G16," ="," ",F16)</f>
         <v/>
       </c>
@@ -1680,11 +1717,11 @@
           <t>range1</t>
         </is>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <f>CONCATENATE(A17," ",D17," ",E17," ","="," ","'",G17,"'",";")</f>
         <v/>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f>CONCATENATE("emxFramework.Range.",D17,,".",G17," ="," ",F17)</f>
         <v/>
       </c>
@@ -1724,11 +1761,11 @@
           <t>range2</t>
         </is>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <f>CONCATENATE(A18," ",D18," ",E18," ","="," ","'",G18,"'",";")</f>
         <v/>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f>CONCATENATE("emxFramework.Range.",D18,,".",G18," ="," ",F18)</f>
         <v/>
       </c>
@@ -1768,11 +1805,11 @@
           <t>range3</t>
         </is>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <f>CONCATENATE(A19," ",D19," ",E19," ","="," ","'",G19,"'",";")</f>
         <v/>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>CONCATENATE("emxFramework.Range.",D19,,".",G19," ="," ",F19)</f>
         <v/>
       </c>
@@ -1812,11 +1849,11 @@
           <t>range4</t>
         </is>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <f>CONCATENATE(A20," ",D20," ",E20," ","="," ","'",G20,"'",";")</f>
         <v/>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f>CONCATENATE("emxFramework.Range.",D20,,".",G20," ="," ",F20)</f>
         <v/>
       </c>
@@ -1856,11 +1893,11 @@
           <t>range5</t>
         </is>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <f>CONCATENATE(A21," ",D21," ",E21," ","="," ","'",G21,"'",";")</f>
         <v/>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>CONCATENATE("emxFramework.Range.",D21,,".",G21," ="," ",F21)</f>
         <v/>
       </c>
@@ -1900,11 +1937,11 @@
           <t>range6</t>
         </is>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <f>CONCATENATE(A22," ",D22," ",E22," ","="," ","'",G22,"'",";")</f>
         <v/>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>CONCATENATE("emxFramework.Range.",D22,,".",G22," ="," ",F22)</f>
         <v/>
       </c>
@@ -1944,11 +1981,11 @@
           <t>range7</t>
         </is>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <f>CONCATENATE(A23," ",D23," ",E23," ","="," ","'",G23,"'",";")</f>
         <v/>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f>CONCATENATE("emxFramework.Range.",D23,,".",G23," ="," ",F23)</f>
         <v/>
       </c>
@@ -1988,11 +2025,11 @@
           <t>range8</t>
         </is>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <f>CONCATENATE(A24," ",D24," ",E24," ","="," ","'",G24,"'",";")</f>
         <v/>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f>CONCATENATE("emxFramework.Range.",D24,,".",G24," ="," ",F24)</f>
         <v/>
       </c>
@@ -2032,11 +2069,11 @@
           <t>range9</t>
         </is>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <f>CONCATENATE(A25," ",D25," ",E25," ","="," ","'",G25,"'",";")</f>
         <v/>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f>CONCATENATE("emxFramework.Range.",D25,,".",G25," ="," ",F25)</f>
         <v/>
       </c>
@@ -2076,11 +2113,11 @@
           <t>range10</t>
         </is>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <f>CONCATENATE(A26," ",D26," ",E26," ","="," ","'",G26,"'",";")</f>
         <v/>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f>CONCATENATE("emxFramework.Range.",D26,,".",G26," ="," ",F26)</f>
         <v/>
       </c>
@@ -2120,11 +2157,11 @@
           <t>range11</t>
         </is>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <f>CONCATENATE(A27," ",D27," ",E27," ","="," ","'",G27,"'",";")</f>
         <v/>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f>CONCATENATE("emxFramework.Range.",D27,,".",G27," ="," ",F27)</f>
         <v/>
       </c>
@@ -2164,11 +2201,11 @@
           <t>range12</t>
         </is>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <f>CONCATENATE(A28," ",D28," ",E28," ","="," ","'",G28,"'",";")</f>
         <v/>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f>CONCATENATE("emxFramework.Range.",D28,,".",G28," ="," ",F28)</f>
         <v/>
       </c>
@@ -2208,11 +2245,11 @@
           <t>range13</t>
         </is>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <f>CONCATENATE(A29," ",D29," ",E29," ","="," ","'",G29,"'",";")</f>
         <v/>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f>CONCATENATE("emxFramework.Range.",D29,,".",G29," ="," ",F29)</f>
         <v/>
       </c>
@@ -2252,11 +2289,11 @@
           <t>range14</t>
         </is>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <f>CONCATENATE(A30," ",D30," ",E30," ","="," ","'",G30,"'",";")</f>
         <v/>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f>CONCATENATE("emxFramework.Range.",D30,,".",G30," ="," ",F30)</f>
         <v/>
       </c>
@@ -2296,11 +2333,11 @@
           <t>range15</t>
         </is>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <f>CONCATENATE(A31," ",D31," ",E31," ","="," ","'",G31,"'",";")</f>
         <v/>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f>CONCATENATE("emxFramework.Range.",D31,,".",G31," ="," ",F31)</f>
         <v/>
       </c>
@@ -2340,11 +2377,11 @@
           <t>range16</t>
         </is>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <f>CONCATENATE(A32," ",D32," ",E32," ","="," ","'",G32,"'",";")</f>
         <v/>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f>CONCATENATE("emxFramework.Range.",D32,,".",G32," ="," ",F32)</f>
         <v/>
       </c>
@@ -2384,11 +2421,11 @@
           <t>range17</t>
         </is>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <f>CONCATENATE(A33," ",D33," ",E33," ","="," ","'",G33,"'",";")</f>
         <v/>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f>CONCATENATE("emxFramework.Range.",D33,,".",G33," ="," ",F33)</f>
         <v/>
       </c>
@@ -2428,11 +2465,11 @@
           <t>range18</t>
         </is>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <f>CONCATENATE(A34," ",D34," ",E34," ","="," ","'",G34,"'",";")</f>
         <v/>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f>CONCATENATE("emxFramework.Range.",D34,,".",G34," ="," ",F34)</f>
         <v/>
       </c>
@@ -2472,11 +2509,11 @@
           <t>range19</t>
         </is>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <f>CONCATENATE(A35," ",D35," ",E35," ","="," ","'",G35,"'",";")</f>
         <v/>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f>CONCATENATE("emxFramework.Range.",D35,,".",G35," ="," ",F35)</f>
         <v/>
       </c>
@@ -2516,11 +2553,11 @@
           <t>range20</t>
         </is>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <f>CONCATENATE(A36," ",D36," ",E36," ","="," ","'",G36,"'",";")</f>
         <v/>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <f>CONCATENATE("emxFramework.Range.",D36,,".",G36," ="," ",F36)</f>
         <v/>
       </c>
@@ -2560,11 +2597,11 @@
           <t>range21</t>
         </is>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <f>CONCATENATE(A37," ",D37," ",E37," ","="," ","'",G37,"'",";")</f>
         <v/>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f>CONCATENATE("emxFramework.Range.",D37,,".",G37," ="," ",F37)</f>
         <v/>
       </c>
@@ -2604,11 +2641,11 @@
           <t>range22</t>
         </is>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <f>CONCATENATE(A38," ",D38," ",E38," ","="," ","'",G38,"'",";")</f>
         <v/>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <f>CONCATENATE("emxFramework.Range.",D38,,".",G38," ="," ",F38)</f>
         <v/>
       </c>
@@ -2648,11 +2685,11 @@
           <t>range23</t>
         </is>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <f>CONCATENATE(A39," ",D39," ",E39," ","="," ","'",G39,"'",";")</f>
         <v/>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f>CONCATENATE("emxFramework.Range.",D39,,".",G39," ="," ",F39)</f>
         <v/>
       </c>
@@ -2692,11 +2729,11 @@
           <t>range24</t>
         </is>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <f>CONCATENATE(A40," ",D40," ",E40," ","="," ","'",G40,"'",";")</f>
         <v/>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f>CONCATENATE("emxFramework.Range.",D40,,".",G40," ="," ",F40)</f>
         <v/>
       </c>
@@ -2736,11 +2773,11 @@
           <t>range25</t>
         </is>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <f>CONCATENATE(A41," ",D41," ",E41," ","="," ","'",G41,"'",";")</f>
         <v/>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f>CONCATENATE("emxFramework.Range.",D41,,".",G41," ="," ",F41)</f>
         <v/>
       </c>
@@ -2780,11 +2817,11 @@
           <t>range26</t>
         </is>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <f>CONCATENATE(A42," ",D42," ",E42," ","="," ","'",G42,"'",";")</f>
         <v/>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f>CONCATENATE("emxFramework.Range.",D42,,".",G42," ="," ",F42)</f>
         <v/>
       </c>
@@ -2824,11 +2861,11 @@
           <t>range27</t>
         </is>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <f>CONCATENATE(A43," ",D43," ",E43," ","="," ","'",G43,"'",";")</f>
         <v/>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f>CONCATENATE("emxFramework.Range.",D43,,".",G43," ="," ",F43)</f>
         <v/>
       </c>
@@ -2868,11 +2905,11 @@
           <t>range28</t>
         </is>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <f>CONCATENATE(A44," ",D44," ",E44," ","="," ","'",G44,"'",";")</f>
         <v/>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f>CONCATENATE("emxFramework.Range.",D44,,".",G44," ="," ",F44)</f>
         <v/>
       </c>
@@ -2912,11 +2949,11 @@
           <t>range29</t>
         </is>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <f>CONCATENATE(A45," ",D45," ",E45," ","="," ","'",G45,"'",";")</f>
         <v/>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f>CONCATENATE("emxFramework.Range.",D45,,".",G45," ="," ",F45)</f>
         <v/>
       </c>
@@ -2948,11 +2985,11 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46">
+      <c r="H46" s="1">
         <f>CONCATENATE(A46," ",D46," ",E46," ","="," ","'",G46,"'",";")</f>
         <v/>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f>CONCATENATE("emxFramework.Range.",D46,,".",G46," ="," ",F46)</f>
         <v/>
       </c>
@@ -2984,11 +3021,11 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47">
+      <c r="H47" s="1">
         <f>CONCATENATE(A47," ",D47," ",E47," ","="," ","'",G47,"'",";")</f>
         <v/>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f>CONCATENATE("emxFramework.Range.",D47,,".",G47," ="," ",F47)</f>
         <v/>
       </c>
@@ -3020,14 +3057,18 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48">
+      <c r="H48" s="1">
         <f>CONCATENATE(A48," ",D48," ",E48," ","="," ","'",G48,"'",";")</f>
         <v/>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f>CONCATENATE("emxFramework.Range.",D48,,".",G48," ="," ",F48)</f>
         <v/>
       </c>
+    </row>
+    <row r="49">
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/传感器/连续物位测量/磁翻板液位计/迈安德物料定义-01属性表-外购设备-磁翻板液位计.xlsx
+++ b/传感器/连续物位测量/磁翻板液位计/迈安德物料定义-01属性表-外购设备-磁翻板液位计.xlsx
@@ -1028,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FloaterType</t>
+          <t>PressureRange</t>
         </is>
       </c>
       <c r="D10">
@@ -1447,8 +1447,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1~10kg/cm2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>pressurerange1</t>
+        </is>
+      </c>
       <c r="H10" s="1">
         <f>CONCATENATE(A10," ",D10," ",E10," ","="," ","'",G10,"'",";")</f>
         <v/>
@@ -1471,7 +1479,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BodyTube</t>
+          <t>PressureRange</t>
         </is>
       </c>
       <c r="D11">
@@ -1507,7 +1515,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Indicator</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D12">
@@ -1519,8 +1527,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>450mm</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>range1</t>
+        </is>
+      </c>
       <c r="H12" s="1">
         <f>CONCATENATE(A12," ",D12," ",E12," ","="," ","'",G12,"'",";")</f>
         <v/>
@@ -1543,7 +1559,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>UpperEndType</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D13">
@@ -1555,8 +1571,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>550mm</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>range2</t>
+        </is>
+      </c>
       <c r="H13" s="1">
         <f>CONCATENATE(A13," ",D13," ",E13," ","="," ","'",G13,"'",";")</f>
         <v/>
@@ -1579,7 +1603,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LowerEndType</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D14">
@@ -1591,8 +1615,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>650mm</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>range3</t>
+        </is>
+      </c>
       <c r="H14" s="1">
         <f>CONCATENATE(A14," ",D14," ",E14," ","="," ","'",G14,"'",";")</f>
         <v/>
@@ -1615,7 +1647,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PressureRange</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D15">
@@ -1629,12 +1661,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1~10kg/cm2</t>
+          <t>750mm</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>pressurerange1</t>
+          <t>range4</t>
         </is>
       </c>
       <c r="H15" s="1">
@@ -1659,7 +1691,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PressureRange</t>
+          <t>Range</t>
         </is>
       </c>
       <c r="D16">
@@ -1671,8 +1703,16 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>500mm</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>range5</t>
+        </is>
+      </c>
       <c r="H16" s="1">
         <f>CONCATENATE(A16," ",D16," ",E16," ","="," ","'",G16,"'",";")</f>
         <v/>
@@ -1709,12 +1749,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>450mm</t>
+          <t>600mm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>range1</t>
+          <t>range6</t>
         </is>
       </c>
       <c r="H17" s="1">
@@ -1753,12 +1793,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>550mm</t>
+          <t>700mm</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>range2</t>
+          <t>range7</t>
         </is>
       </c>
       <c r="H18" s="1">
@@ -1797,12 +1837,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>650mm</t>
+          <t>800mm</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>range3</t>
+          <t>range8</t>
         </is>
       </c>
       <c r="H19" s="1">
@@ -1841,12 +1881,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>750mm</t>
+          <t>900mm</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>range4</t>
+          <t>range9</t>
         </is>
       </c>
       <c r="H20" s="1">
@@ -1885,12 +1925,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>500mm</t>
+          <t>1000mm</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>range5</t>
+          <t>range10</t>
         </is>
       </c>
       <c r="H21" s="1">
@@ -1929,12 +1969,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>600mm</t>
+          <t>1100mm</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>range6</t>
+          <t>range11</t>
         </is>
       </c>
       <c r="H22" s="1">
@@ -1973,12 +2013,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>700mm</t>
+          <t>1200mm</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>range7</t>
+          <t>range12</t>
         </is>
       </c>
       <c r="H23" s="1">
@@ -2017,12 +2057,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>800mm</t>
+          <t>1300mm</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>range8</t>
+          <t>range13</t>
         </is>
       </c>
       <c r="H24" s="1">
@@ -2061,12 +2101,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>900mm</t>
+          <t>1400mm</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>range9</t>
+          <t>range14</t>
         </is>
       </c>
       <c r="H25" s="1">
@@ -2105,12 +2145,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1000mm</t>
+          <t>1500mm</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>range10</t>
+          <t>range15</t>
         </is>
       </c>
       <c r="H26" s="1">
@@ -2149,12 +2189,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1100mm</t>
+          <t>1600mm</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>range11</t>
+          <t>range16</t>
         </is>
       </c>
       <c r="H27" s="1">
@@ -2193,12 +2233,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1200mm</t>
+          <t>1700mm</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>range12</t>
+          <t>range17</t>
         </is>
       </c>
       <c r="H28" s="1">
@@ -2237,12 +2277,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1300mm</t>
+          <t>1800mm</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>range13</t>
+          <t>range18</t>
         </is>
       </c>
       <c r="H29" s="1">
@@ -2281,12 +2321,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1400mm</t>
+          <t>1900mm</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>range14</t>
+          <t>range19</t>
         </is>
       </c>
       <c r="H30" s="1">
@@ -2325,12 +2365,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1500mm</t>
+          <t>2000mm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>range15</t>
+          <t>range20</t>
         </is>
       </c>
       <c r="H31" s="1">
@@ -2369,12 +2409,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1600mm</t>
+          <t>2100mm</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>range16</t>
+          <t>range21</t>
         </is>
       </c>
       <c r="H32" s="1">
@@ -2413,12 +2453,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1700mm</t>
+          <t>2200mm</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>range17</t>
+          <t>range22</t>
         </is>
       </c>
       <c r="H33" s="1">
@@ -2457,12 +2497,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1800mm</t>
+          <t>2400mm</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>range18</t>
+          <t>range23</t>
         </is>
       </c>
       <c r="H34" s="1">
@@ -2501,12 +2541,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1900mm</t>
+          <t>2600mm</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>range19</t>
+          <t>range24</t>
         </is>
       </c>
       <c r="H35" s="1">
@@ -2545,12 +2585,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2000mm</t>
+          <t>2800mm</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>range20</t>
+          <t>range25</t>
         </is>
       </c>
       <c r="H36" s="1">
@@ -2589,12 +2629,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2100mm</t>
+          <t>3000mm</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>range21</t>
+          <t>range26</t>
         </is>
       </c>
       <c r="H37" s="1">
@@ -2633,12 +2673,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2200mm</t>
+          <t>3200mm</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>range22</t>
+          <t>range27</t>
         </is>
       </c>
       <c r="H38" s="1">
@@ -2677,12 +2717,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2400mm</t>
+          <t>3400mm</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>range23</t>
+          <t>range28</t>
         </is>
       </c>
       <c r="H39" s="1">
@@ -2721,12 +2761,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2600mm</t>
+          <t>3600mm</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>range24</t>
+          <t>range29</t>
         </is>
       </c>
       <c r="H40" s="1">
@@ -2763,16 +2803,8 @@
           <t>add range</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2800mm</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>range25</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" s="1">
         <f>CONCATENATE(A41," ",D41," ",E41," ","="," ","'",G41,"'",";")</f>
         <v/>
@@ -2783,292 +2815,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="D42">
-        <f>"my"&amp;B42&amp;"_"&amp;C42</f>
-        <v/>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3000mm</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>range26</t>
-        </is>
-      </c>
-      <c r="H42" s="1">
-        <f>CONCATENATE(A42," ",D42," ",E42," ","="," ","'",G42,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I42" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D42,,".",G42," ="," ",F42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="D43">
-        <f>"my"&amp;B43&amp;"_"&amp;C43</f>
-        <v/>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3200mm</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>range27</t>
-        </is>
-      </c>
-      <c r="H43" s="1">
-        <f>CONCATENATE(A43," ",D43," ",E43," ","="," ","'",G43,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I43" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D43,,".",G43," ="," ",F43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="D44">
-        <f>"my"&amp;B44&amp;"_"&amp;C44</f>
-        <v/>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3400mm</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>range28</t>
-        </is>
-      </c>
-      <c r="H44" s="1">
-        <f>CONCATENATE(A44," ",D44," ",E44," ","="," ","'",G44,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I44" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D44,,".",G44," ="," ",F44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="D45">
-        <f>"my"&amp;B45&amp;"_"&amp;C45</f>
-        <v/>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3600mm</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>range29</t>
-        </is>
-      </c>
-      <c r="H45" s="1">
-        <f>CONCATENATE(A45," ",D45," ",E45," ","="," ","'",G45,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I45" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D45,,".",G45," ="," ",F45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Range</t>
-        </is>
-      </c>
-      <c r="D46">
-        <f>"my"&amp;B46&amp;"_"&amp;C46</f>
-        <v/>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" s="1">
-        <f>CONCATENATE(A46," ",D46," ",E46," ","="," ","'",G46,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I46" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D46,,".",G46," ="," ",F46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Transmitter</t>
-        </is>
-      </c>
-      <c r="D47">
-        <f>"my"&amp;B47&amp;"_"&amp;C47</f>
-        <v/>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" s="1">
-        <f>CONCATENATE(A47," ",D47," ",E47," ","="," ","'",G47,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I47" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D47,,".",G47," ="," ",F47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>mod attr</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>A306</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ScaleMark</t>
-        </is>
-      </c>
-      <c r="D48">
-        <f>"my"&amp;B48&amp;"_"&amp;C48</f>
-        <v/>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>add range</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" s="1">
-        <f>CONCATENATE(A48," ",D48," ",E48," ","="," ","'",G48,"'",";")</f>
-        <v/>
-      </c>
-      <c r="I48" s="2">
-        <f>CONCATENATE("emxFramework.Range.",D48,,".",G48," ="," ",F48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="H49" s="1" t="n"/>
-      <c r="I49" s="2" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
